--- a/subtable/按分量制拆分的子表/组手/U9女子中级组-35KG.xlsx
+++ b/subtable/按分量制拆分的子表/组手/U9女子中级组-35KG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 3</t>
+          <t>赢的次数</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,15 +461,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>分量制</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>型</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>无差</t>
         </is>
@@ -491,21 +496,24 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>331081201709274022</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>34</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>U9女子中级组-35KG</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,27 +531,30 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>410105201607230449</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>34.8公斤</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>U9女子中级组-35KG</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>U9中级组女子个人型</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>2016年女子组无差</t>
         </is>
@@ -565,21 +576,24 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>120111201609110043</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>36.2</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>U9女子中级组-35KG</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -597,21 +611,24 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>120111201607290087</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>35</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>U9女子中级组-35KG</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/subtable/按分量制拆分的子表/组手/U9女子中级组-35KG.xlsx
+++ b/subtable/按分量制拆分的子表/组手/U9女子中级组-35KG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +568,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>王茜</t>
+          <t>王姿涵</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -581,11 +581,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>120111201609110043</t>
+          <t>120111201607290087</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>36.2</v>
+        <v>35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -594,41 +594,6 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>真武道场</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>王姿涵</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>120111201607290087</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>35</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>U9女子中级组-35KG</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
